--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>时间</t>
   </si>
   <si>
     <t>事情</t>
+  </si>
+  <si>
+    <t>完成操作系统环境配置</t>
   </si>
 </sst>
 </file>
@@ -32,14 +35,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,154 +497,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -978,10 +977,14 @@
     <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="11.2857142857143"/>
+    <col min="2" max="2" width="22.9285714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -992,94 +995,98 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660"/>
+    <workbookView windowWidth="28800" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="开发" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>时间</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>完成操作系统环境配置</t>
+  </si>
+  <si>
+    <t>实现共享内存</t>
   </si>
 </sst>
 </file>
@@ -977,7 +980,7 @@
     <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1004,8 +1007,12 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>时间</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>实现共享内存</t>
+  </si>
+  <si>
+    <t>完成进程状态分析</t>
   </si>
 </sst>
 </file>
@@ -980,7 +983,7 @@
     <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1016,8 +1019,12 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>时间</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>完成进程状态分析</t>
+  </si>
+  <si>
+    <t>完成信号量的实现</t>
   </si>
 </sst>
 </file>
@@ -983,7 +986,7 @@
     <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1028,8 +1031,12 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160"/>
+    <workbookView windowWidth="28800" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="开发" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>时间</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>完成信号量的实现</t>
+  </si>
+  <si>
+    <t>完成内核栈的进程切换</t>
   </si>
 </sst>
 </file>
@@ -986,7 +989,7 @@
     <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1040,8 +1043,12 @@
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
